--- a/circle_position .xlsx
+++ b/circle_position .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Prg\Stellaris\New Government Mod 2 JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBFEBF0-6558-45CC-9681-E5EA32D0326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C97494-11CC-4245-9ABB-DDB9076B3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="20910" windowHeight="11835" xr2:uid="{B003DEF9-EE5D-4E21-89EA-1BB5A1999EDE}"/>
+    <workbookView xWindow="4500" yWindow="4500" windowWidth="20910" windowHeight="11835" xr2:uid="{B003DEF9-EE5D-4E21-89EA-1BB5A1999EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>non_fanatic</t>
   </si>
@@ -111,23 +111,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>栄誉</t>
-    <rPh sb="0" eb="2">
-      <t>エイヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>精神</t>
     <rPh sb="0" eb="2">
       <t>セイシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保全</t>
-    <rPh sb="0" eb="2">
-      <t>ホゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -159,13 +145,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>栄望</t>
+    <rPh sb="0" eb="1">
+      <t>サカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ノゾム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -322,10 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1816,7 +1812,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1838,7 +1834,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>-15</v>
@@ -1855,7 +1851,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11">
         <v>14.234859724968643</v>
@@ -1872,7 +1868,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11">
         <v>39.01897707147414</v>
@@ -1889,7 +1885,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11">
         <v>55.579194842094267</v>
@@ -1923,7 +1919,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11">
         <v>55.579194842094267</v>
@@ -1940,7 +1936,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11">
         <v>39.018977071474154</v>
@@ -1957,7 +1953,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" s="11">
         <v>14.234859724968651</v>
@@ -1974,7 +1970,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" s="11">
         <v>-14.999999999999991</v>
@@ -1991,7 +1987,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="11">
         <v>-44.234859724968629</v>
@@ -2008,7 +2004,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11">
         <v>-69.01897707147414</v>
@@ -2042,7 +2038,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>-91.394369999999995</v>
@@ -2059,7 +2055,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11">
         <v>-85.579194842094253</v>
@@ -2076,7 +2072,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="11">
         <v>-69.018977071474154</v>
@@ -2093,7 +2089,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11">
         <v>-44.234859724968686</v>
@@ -2111,7 +2107,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
